--- a/接口测试/接口测试用例.xlsx
+++ b/接口测试/接口测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\leaving\GitWorksplace\Test\接口测试\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F1997-B520-46DB-972E-AB2D13F8E6A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AA63A7-9621-4F01-9F61-15B108FABBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -890,7 +890,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
